--- a/Data/Experimental GDP Modelling.xlsx
+++ b/Data/Experimental GDP Modelling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spulick/GitHub/fa_grants/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\fa_grants\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2EFD14-47E7-AB49-83AF-13AFEEF06A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03054996-626B-433A-BB28-9FAD497922B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{DAF64436-A789-8F4A-8849-B97D99D9C6B0}"/>
+    <workbookView xWindow="-330" yWindow="-16500" windowWidth="29040" windowHeight="15720" xr2:uid="{DAF64436-A789-8F4A-8849-B97D99D9C6B0}"/>
   </bookViews>
   <sheets>
     <sheet name="GRP" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -207,7 +207,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="177" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -263,7 +263,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -622,21 +622,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B464BD4D-2025-EF4F-BB53-0019258801E7}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="157" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="1" max="1" width="23.84765625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" customWidth="1"/>
-    <col min="4" max="8" width="16.1640625" customWidth="1"/>
-    <col min="9" max="10" width="22.83203125" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.84765625" customWidth="1"/>
+    <col min="4" max="8" width="16.1484375" customWidth="1"/>
+    <col min="9" max="10" width="22.84765625" customWidth="1"/>
+    <col min="11" max="11" width="17.34765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="42" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="36" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -671,7 +671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -710,7 +710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -749,7 +749,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -827,7 +827,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -866,7 +866,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -905,7 +905,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -944,7 +944,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -983,7 +983,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -1256,10 +1256,10 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.6">
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
         <v>42</v>
       </c>

--- a/Data/Experimental GDP Modelling.xlsx
+++ b/Data/Experimental GDP Modelling.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\fa_grants\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03054996-626B-433A-BB28-9FAD497922B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43C9026-6E7F-4844-A4AE-BFBC41E123A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-330" yWindow="-16500" windowWidth="29040" windowHeight="15720" xr2:uid="{DAF64436-A789-8F4A-8849-B97D99D9C6B0}"/>
+    <workbookView xWindow="-330" yWindow="-16500" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{DAF64436-A789-8F4A-8849-B97D99D9C6B0}"/>
   </bookViews>
   <sheets>
     <sheet name="GRP" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">GRP!#REF!</definedName>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="99">
   <si>
     <t>state</t>
   </si>
@@ -199,17 +200,168 @@
   </si>
   <si>
     <t>GRP 2019-20</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>H1 GROSS DOMESTIC PRODUCT AND INCOME</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Real GDP</t>
+  </si>
+  <si>
+    <t>Year-ended real GDP growth</t>
+  </si>
+  <si>
+    <t>Real non-farm GDP</t>
+  </si>
+  <si>
+    <t>Year-ended real non-farm GDP growth</t>
+  </si>
+  <si>
+    <t>Real farm GDP</t>
+  </si>
+  <si>
+    <t>Year-ended real GDP per capita growth</t>
+  </si>
+  <si>
+    <t>Real GDI</t>
+  </si>
+  <si>
+    <t>Year-ended real GDI growth</t>
+  </si>
+  <si>
+    <t>Nominal GDP</t>
+  </si>
+  <si>
+    <t>Year-ended nominal GDP growth</t>
+  </si>
+  <si>
+    <t>Terms of trade</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Gross domestic product (GDP); Chain volume</t>
+  </si>
+  <si>
+    <t>Gross domestic product (GDP); Chain volume; Year-ended change (in per cent)</t>
+  </si>
+  <si>
+    <t>Gross domestic product (GDP); Non-farm; Chain volume</t>
+  </si>
+  <si>
+    <t>Gross domestic product (GDP); Non-farm; Chain volume; Year-ended change (in per cent)</t>
+  </si>
+  <si>
+    <t>Gross domestic product (GDP); Farm; Chain volume</t>
+  </si>
+  <si>
+    <t>Gross domestic product (GDP) per capita; Chain volume; Year-ended change (in per cent)</t>
+  </si>
+  <si>
+    <t>Gross domestic income (GDI); Chain volume</t>
+  </si>
+  <si>
+    <t>Gross domestic income (GDI); Chain volume; Year-ended change (in per cent)</t>
+  </si>
+  <si>
+    <t>Gross domestic product (GDP); Current price</t>
+  </si>
+  <si>
+    <t>Gross domestic product (GDP); Current price; Year-ended change (in per cent)</t>
+  </si>
+  <si>
+    <t>Goods &amp; services terms of trade</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Quarterly</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Seasonally adjusted</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>$ million</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Per cent </t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>ABS</t>
+  </si>
+  <si>
+    <t>Publication date</t>
+  </si>
+  <si>
+    <t>05-Jun-2025</t>
+  </si>
+  <si>
+    <t>Series ID</t>
+  </si>
+  <si>
+    <t>GGDPCVGDP</t>
+  </si>
+  <si>
+    <t>GGDPCVGDPY</t>
+  </si>
+  <si>
+    <t>GGDPCVGDPNF</t>
+  </si>
+  <si>
+    <t>GGDPCVGDPNFY</t>
+  </si>
+  <si>
+    <t>GGDPCVGDPF</t>
+  </si>
+  <si>
+    <t>GGDPCVGDPFY</t>
+  </si>
+  <si>
+    <t>GGDPCVRGDI</t>
+  </si>
+  <si>
+    <t>GGDPCVRGDIY</t>
+  </si>
+  <si>
+    <t>GGDPECCPGDP</t>
+  </si>
+  <si>
+    <t>GGDPECCPGDPY</t>
+  </si>
+  <si>
+    <t>GOPITT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
+    <numFmt numFmtId="170" formatCode="mmm\-yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -230,6 +382,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -248,10 +425,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -264,9 +442,48 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{A8D43EA2-6921-4E83-A5CA-84EC019A1D33}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -622,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B464BD4D-2025-EF4F-BB53-0019258801E7}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView zoomScale="95" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -1256,6 +1473,35 @@
         <v>3.8</v>
       </c>
     </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="3">
+        <f>SUM(D2:D16)</f>
+        <v>1658938</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" ref="E17:I17" si="15">SUM(E2:E16)</f>
+        <v>1735438.2569402617</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="15"/>
+        <v>1816320.5875036048</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="15"/>
+        <v>1901930.5890870735</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="15"/>
+        <v>1992650.3551164183</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="15"/>
+        <v>2088903</v>
+      </c>
+    </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.6">
       <c r="J18" s="3"/>
     </row>
@@ -1268,4 +1514,1376 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{717BF311-CCDB-44CC-BBC4-8E23B7368B81}">
+  <dimension ref="A1:M35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A1" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="11"/>
+    </row>
+    <row r="2" spans="1:13" ht="46.8" x14ac:dyDescent="0.6">
+      <c r="A2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="115.2" x14ac:dyDescent="0.6">
+      <c r="A3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A4" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="24" x14ac:dyDescent="0.6">
+      <c r="A5" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A6" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A9" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="24" x14ac:dyDescent="0.6">
+      <c r="A10" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="24" x14ac:dyDescent="0.6">
+      <c r="A11" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A12" s="17">
+        <v>42277</v>
+      </c>
+      <c r="B12" s="18">
+        <v>537014</v>
+      </c>
+      <c r="C12" s="19">
+        <v>2.4655976431619</v>
+      </c>
+      <c r="D12" s="18">
+        <v>525881</v>
+      </c>
+      <c r="E12" s="19">
+        <v>2.6045203031225301</v>
+      </c>
+      <c r="F12" s="18">
+        <v>11254</v>
+      </c>
+      <c r="G12" s="19">
+        <v>1.0069678579456001</v>
+      </c>
+      <c r="H12" s="18">
+        <v>492820</v>
+      </c>
+      <c r="I12" s="19">
+        <v>0.1982331832183</v>
+      </c>
+      <c r="J12" s="18">
+        <v>411885</v>
+      </c>
+      <c r="K12" s="19">
+        <v>2.27450493512944</v>
+      </c>
+      <c r="L12" s="19">
+        <v>67.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A13" s="17">
+        <v>42369</v>
+      </c>
+      <c r="B13" s="18">
+        <v>540382</v>
+      </c>
+      <c r="C13" s="19">
+        <v>2.7162549516054102</v>
+      </c>
+      <c r="D13" s="18">
+        <v>529580</v>
+      </c>
+      <c r="E13" s="19">
+        <v>2.98144086121872</v>
+      </c>
+      <c r="F13" s="18">
+        <v>10877</v>
+      </c>
+      <c r="G13" s="19">
+        <v>1.2406167123656999</v>
+      </c>
+      <c r="H13" s="18">
+        <v>491625</v>
+      </c>
+      <c r="I13" s="19">
+        <v>3.1741574748369999E-2</v>
+      </c>
+      <c r="J13" s="18">
+        <v>412118</v>
+      </c>
+      <c r="K13" s="19">
+        <v>1.6899886248393099</v>
+      </c>
+      <c r="L13" s="19">
+        <v>64.900000000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A14" s="17">
+        <v>42460</v>
+      </c>
+      <c r="B14" s="18">
+        <v>545315</v>
+      </c>
+      <c r="C14" s="19">
+        <v>2.6533263054854999</v>
+      </c>
+      <c r="D14" s="18">
+        <v>534714</v>
+      </c>
+      <c r="E14" s="19">
+        <v>3.0076998503181498</v>
+      </c>
+      <c r="F14" s="18">
+        <v>10674</v>
+      </c>
+      <c r="G14" s="19">
+        <v>1.13468840741568</v>
+      </c>
+      <c r="H14" s="18">
+        <v>493858</v>
+      </c>
+      <c r="I14" s="19">
+        <v>0.23625211591779999</v>
+      </c>
+      <c r="J14" s="18">
+        <v>414494</v>
+      </c>
+      <c r="K14" s="19">
+        <v>1.5339316859040999</v>
+      </c>
+      <c r="L14" s="19">
+        <v>63.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A15" s="17">
+        <v>42551</v>
+      </c>
+      <c r="B15" s="18">
+        <v>548862</v>
+      </c>
+      <c r="C15" s="19">
+        <v>3.1972879928251499</v>
+      </c>
+      <c r="D15" s="18">
+        <v>537634</v>
+      </c>
+      <c r="E15" s="19">
+        <v>3.4146210101522998</v>
+      </c>
+      <c r="F15" s="18">
+        <v>11300</v>
+      </c>
+      <c r="G15" s="19">
+        <v>1.60300900013433</v>
+      </c>
+      <c r="H15" s="18">
+        <v>500177</v>
+      </c>
+      <c r="I15" s="19">
+        <v>2.0130244928177699</v>
+      </c>
+      <c r="J15" s="18">
+        <v>419266</v>
+      </c>
+      <c r="K15" s="19">
+        <v>2.94268576240975</v>
+      </c>
+      <c r="L15" s="19">
+        <v>65.5</v>
+      </c>
+      <c r="M15" s="9">
+        <f>IF(MONTH(A15) = 6, SUM(B12:B15), 0)</f>
+        <v>2171573</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A16" s="17">
+        <v>42643</v>
+      </c>
+      <c r="B16" s="18">
+        <v>548814</v>
+      </c>
+      <c r="C16" s="19">
+        <v>2.1973356374321602</v>
+      </c>
+      <c r="D16" s="18">
+        <v>537363</v>
+      </c>
+      <c r="E16" s="19">
+        <v>2.1833836932690001</v>
+      </c>
+      <c r="F16" s="18">
+        <v>11525</v>
+      </c>
+      <c r="G16" s="19">
+        <v>0.54742089100540003</v>
+      </c>
+      <c r="H16" s="18">
+        <v>504722</v>
+      </c>
+      <c r="I16" s="19">
+        <v>2.41508055679558</v>
+      </c>
+      <c r="J16" s="18">
+        <v>424715</v>
+      </c>
+      <c r="K16" s="19">
+        <v>3.1149471333017802</v>
+      </c>
+      <c r="L16" s="19">
+        <v>68.5</v>
+      </c>
+      <c r="M16" s="9">
+        <f t="shared" ref="M16:M35" si="0">IF(MONTH(A16) = 6, SUM(B13:B16), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A17" s="17">
+        <v>42735</v>
+      </c>
+      <c r="B17" s="18">
+        <v>555152</v>
+      </c>
+      <c r="C17" s="19">
+        <v>2.7332516627126799</v>
+      </c>
+      <c r="D17" s="18">
+        <v>542869</v>
+      </c>
+      <c r="E17" s="19">
+        <v>2.5093470297216798</v>
+      </c>
+      <c r="F17" s="18">
+        <v>12339</v>
+      </c>
+      <c r="G17" s="19">
+        <v>1.0478177862629301</v>
+      </c>
+      <c r="H17" s="18">
+        <v>522286</v>
+      </c>
+      <c r="I17" s="19">
+        <v>6.2366641240782998</v>
+      </c>
+      <c r="J17" s="18">
+        <v>438897</v>
+      </c>
+      <c r="K17" s="19">
+        <v>6.4978962336029999</v>
+      </c>
+      <c r="L17" s="19">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="M17" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A18" s="17">
+        <v>42825</v>
+      </c>
+      <c r="B18" s="18">
+        <v>556828</v>
+      </c>
+      <c r="C18" s="19">
+        <v>2.1112567965304398</v>
+      </c>
+      <c r="D18" s="18">
+        <v>543950</v>
+      </c>
+      <c r="E18" s="19">
+        <v>1.7272785077630199</v>
+      </c>
+      <c r="F18" s="18">
+        <v>12930</v>
+      </c>
+      <c r="G18" s="19">
+        <v>0.41962984230751998</v>
+      </c>
+      <c r="H18" s="18">
+        <v>527802</v>
+      </c>
+      <c r="I18" s="19">
+        <v>6.8732307667386197</v>
+      </c>
+      <c r="J18" s="18">
+        <v>446713</v>
+      </c>
+      <c r="K18" s="19">
+        <v>7.7730920109820598</v>
+      </c>
+      <c r="L18" s="19">
+        <v>78.8</v>
+      </c>
+      <c r="M18" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A19" s="17">
+        <v>42916</v>
+      </c>
+      <c r="B19" s="18">
+        <v>560283</v>
+      </c>
+      <c r="C19" s="19">
+        <v>2.08085092427606</v>
+      </c>
+      <c r="D19" s="18">
+        <v>548580</v>
+      </c>
+      <c r="E19" s="19">
+        <v>2.03595754732773</v>
+      </c>
+      <c r="F19" s="18">
+        <v>11800</v>
+      </c>
+      <c r="G19" s="19">
+        <v>0.41426116081267</v>
+      </c>
+      <c r="H19" s="18">
+        <v>526139</v>
+      </c>
+      <c r="I19" s="19">
+        <v>5.1905625408605403</v>
+      </c>
+      <c r="J19" s="18">
+        <v>446706</v>
+      </c>
+      <c r="K19" s="19">
+        <v>6.5447710999699398</v>
+      </c>
+      <c r="L19" s="19">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="M19" s="9">
+        <f t="shared" si="0"/>
+        <v>2221077</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A20" s="17">
+        <v>43008</v>
+      </c>
+      <c r="B20" s="18">
+        <v>565488</v>
+      </c>
+      <c r="C20" s="19">
+        <v>3.0381878013315999</v>
+      </c>
+      <c r="D20" s="18">
+        <v>553258</v>
+      </c>
+      <c r="E20" s="19">
+        <v>2.9579632390023001</v>
+      </c>
+      <c r="F20" s="18">
+        <v>12325</v>
+      </c>
+      <c r="G20" s="19">
+        <v>1.3987252124645799</v>
+      </c>
+      <c r="H20" s="18">
+        <v>531236</v>
+      </c>
+      <c r="I20" s="19">
+        <v>5.2531888841778303</v>
+      </c>
+      <c r="J20" s="18">
+        <v>452601</v>
+      </c>
+      <c r="K20" s="19">
+        <v>6.5658147228141202</v>
+      </c>
+      <c r="L20" s="19">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="M20" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A21" s="8">
+        <v>43100</v>
+      </c>
+      <c r="B21" s="6">
+        <v>567859</v>
+      </c>
+      <c r="C21" s="7">
+        <v>2.2889226734299699</v>
+      </c>
+      <c r="D21" s="6">
+        <v>557324</v>
+      </c>
+      <c r="E21" s="7">
+        <v>2.6627049988118698</v>
+      </c>
+      <c r="F21" s="6">
+        <v>10694</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.74256338151940005</v>
+      </c>
+      <c r="H21" s="6">
+        <v>533135</v>
+      </c>
+      <c r="I21" s="7">
+        <v>2.0772143997732999</v>
+      </c>
+      <c r="J21" s="6">
+        <v>455183</v>
+      </c>
+      <c r="K21" s="7">
+        <v>3.7106656003572702</v>
+      </c>
+      <c r="L21" s="7">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="M21" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A22" s="8">
+        <v>43190</v>
+      </c>
+      <c r="B22" s="6">
+        <v>573671</v>
+      </c>
+      <c r="C22" s="7">
+        <v>3.0248119706623999</v>
+      </c>
+      <c r="D22" s="6">
+        <v>562160</v>
+      </c>
+      <c r="E22" s="7">
+        <v>3.3477341667432801</v>
+      </c>
+      <c r="F22" s="6">
+        <v>11650</v>
+      </c>
+      <c r="G22" s="7">
+        <v>1.4999560130201499</v>
+      </c>
+      <c r="H22" s="6">
+        <v>540284</v>
+      </c>
+      <c r="I22" s="7">
+        <v>2.3649019897613099</v>
+      </c>
+      <c r="J22" s="6">
+        <v>463997</v>
+      </c>
+      <c r="K22" s="7">
+        <v>3.8691508865871498</v>
+      </c>
+      <c r="L22" s="7">
+        <v>76.5</v>
+      </c>
+      <c r="M22" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A23" s="8">
+        <v>43281</v>
+      </c>
+      <c r="B23" s="6">
+        <v>577992</v>
+      </c>
+      <c r="C23" s="7">
+        <v>3.1607241340536798</v>
+      </c>
+      <c r="D23" s="6">
+        <v>565818</v>
+      </c>
+      <c r="E23" s="7">
+        <v>3.1422946516460599</v>
+      </c>
+      <c r="F23" s="6">
+        <v>12307</v>
+      </c>
+      <c r="G23" s="7">
+        <v>1.62826420890938</v>
+      </c>
+      <c r="H23" s="6">
+        <v>544908</v>
+      </c>
+      <c r="I23" s="7">
+        <v>3.5673082588441498</v>
+      </c>
+      <c r="J23" s="6">
+        <v>470250</v>
+      </c>
+      <c r="K23" s="7">
+        <v>5.2705806503606301</v>
+      </c>
+      <c r="L23" s="7">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="M23" s="9">
+        <f t="shared" si="0"/>
+        <v>2285010</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A24" s="8">
+        <v>43373</v>
+      </c>
+      <c r="B24" s="6">
+        <v>580152</v>
+      </c>
+      <c r="C24" s="7">
+        <v>2.5931584755114301</v>
+      </c>
+      <c r="D24" s="6">
+        <v>568811</v>
+      </c>
+      <c r="E24" s="7">
+        <v>2.8111658575203702</v>
+      </c>
+      <c r="F24" s="6">
+        <v>11512</v>
+      </c>
+      <c r="G24" s="7">
+        <v>1.04330364938012</v>
+      </c>
+      <c r="H24" s="6">
+        <v>548921</v>
+      </c>
+      <c r="I24" s="7">
+        <v>3.3290289061735301</v>
+      </c>
+      <c r="J24" s="6">
+        <v>477632</v>
+      </c>
+      <c r="K24" s="7">
+        <v>5.5304782799861201</v>
+      </c>
+      <c r="L24" s="7">
+        <v>78</v>
+      </c>
+      <c r="M24" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A25" s="8">
+        <v>43465</v>
+      </c>
+      <c r="B25" s="6">
+        <v>581457</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2.3946085207771799</v>
+      </c>
+      <c r="D25" s="6">
+        <v>571407</v>
+      </c>
+      <c r="E25" s="7">
+        <v>2.52689638343226</v>
+      </c>
+      <c r="F25" s="6">
+        <v>10205</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0.81559665038382001</v>
+      </c>
+      <c r="H25" s="6">
+        <v>552869</v>
+      </c>
+      <c r="I25" s="7">
+        <v>3.70150149586879</v>
+      </c>
+      <c r="J25" s="6">
+        <v>482380</v>
+      </c>
+      <c r="K25" s="7">
+        <v>5.9749595217747604</v>
+      </c>
+      <c r="L25" s="7">
+        <v>79.7</v>
+      </c>
+      <c r="M25" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A26" s="8">
+        <v>43555</v>
+      </c>
+      <c r="B26" s="6">
+        <v>585583</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2.0764514852589699</v>
+      </c>
+      <c r="D26" s="6">
+        <v>575543</v>
+      </c>
+      <c r="E26" s="7">
+        <v>2.3806389639960002</v>
+      </c>
+      <c r="F26" s="6">
+        <v>10240</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0.53304442036836996</v>
+      </c>
+      <c r="H26" s="6">
+        <v>558360</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3.3456478444669799</v>
+      </c>
+      <c r="J26" s="6">
+        <v>489544</v>
+      </c>
+      <c r="K26" s="7">
+        <v>5.5058545637148599</v>
+      </c>
+      <c r="L26" s="7">
+        <v>80.7</v>
+      </c>
+      <c r="M26" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A27" s="8">
+        <v>43646</v>
+      </c>
+      <c r="B27" s="6">
+        <v>587437</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1.6341056623621</v>
+      </c>
+      <c r="D27" s="6">
+        <v>577964</v>
+      </c>
+      <c r="E27" s="7">
+        <v>2.14662665380034</v>
+      </c>
+      <c r="F27" s="6">
+        <v>9702</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0.1468301951978</v>
+      </c>
+      <c r="H27" s="6">
+        <v>564578</v>
+      </c>
+      <c r="I27" s="7">
+        <v>3.6097836699039201</v>
+      </c>
+      <c r="J27" s="6">
+        <v>497139</v>
+      </c>
+      <c r="K27" s="7">
+        <v>5.7180223285486598</v>
+      </c>
+      <c r="L27" s="7">
+        <v>83.3</v>
+      </c>
+      <c r="M27" s="9">
+        <f t="shared" si="0"/>
+        <v>2334629</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A28" s="8">
+        <v>43738</v>
+      </c>
+      <c r="B28" s="6">
+        <v>590801</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1.8355534411671499</v>
+      </c>
+      <c r="D28" s="6">
+        <v>581206</v>
+      </c>
+      <c r="E28" s="7">
+        <v>2.1791069441343498</v>
+      </c>
+      <c r="F28" s="6">
+        <v>9841</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0.34561714261027998</v>
+      </c>
+      <c r="H28" s="6">
+        <v>569268</v>
+      </c>
+      <c r="I28" s="7">
+        <v>3.7067264688361399</v>
+      </c>
+      <c r="J28" s="6">
+        <v>503900</v>
+      </c>
+      <c r="K28" s="7">
+        <v>5.4996315154763398</v>
+      </c>
+      <c r="L28" s="7">
+        <v>84.1</v>
+      </c>
+      <c r="M28" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A29" s="8">
+        <v>43830</v>
+      </c>
+      <c r="B29" s="6">
+        <v>594225</v>
+      </c>
+      <c r="C29" s="7">
+        <v>2.1958631506714998</v>
+      </c>
+      <c r="D29" s="6">
+        <v>584770</v>
+      </c>
+      <c r="E29" s="7">
+        <v>2.3386132826514099</v>
+      </c>
+      <c r="F29" s="6">
+        <v>9647</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0.69651741293532998</v>
+      </c>
+      <c r="H29" s="6">
+        <v>565068</v>
+      </c>
+      <c r="I29" s="7">
+        <v>2.2064901450434</v>
+      </c>
+      <c r="J29" s="6">
+        <v>502848</v>
+      </c>
+      <c r="K29" s="7">
+        <v>4.2431278245366597</v>
+      </c>
+      <c r="L29" s="7">
+        <v>79.7</v>
+      </c>
+      <c r="M29" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A30" s="8">
+        <v>43921</v>
+      </c>
+      <c r="B30" s="6">
+        <v>593309</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1.3193689024442401</v>
+      </c>
+      <c r="D30" s="6">
+        <v>584604</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1.5743393630015501</v>
+      </c>
+      <c r="F30" s="6">
+        <v>8912</v>
+      </c>
+      <c r="G30" s="7">
+        <v>-0.11207862746788</v>
+      </c>
+      <c r="H30" s="6">
+        <v>564268</v>
+      </c>
+      <c r="I30" s="7">
+        <v>1.0580987176732</v>
+      </c>
+      <c r="J30" s="6">
+        <v>504765</v>
+      </c>
+      <c r="K30" s="7">
+        <v>3.1092200088245399</v>
+      </c>
+      <c r="L30" s="7">
+        <v>79.7</v>
+      </c>
+      <c r="M30" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A31" s="8">
+        <v>44012</v>
+      </c>
+      <c r="B31" s="6">
+        <v>553502</v>
+      </c>
+      <c r="C31" s="7">
+        <v>-5.7767896812764601</v>
+      </c>
+      <c r="D31" s="6">
+        <v>545053</v>
+      </c>
+      <c r="E31" s="7">
+        <v>-5.6942992989182697</v>
+      </c>
+      <c r="F31" s="6">
+        <v>8615</v>
+      </c>
+      <c r="G31" s="7">
+        <v>-6.93402328589909</v>
+      </c>
+      <c r="H31" s="6">
+        <v>528229</v>
+      </c>
+      <c r="I31" s="7">
+        <v>-6.4382600809808403</v>
+      </c>
+      <c r="J31" s="6">
+        <v>468676</v>
+      </c>
+      <c r="K31" s="7">
+        <v>-5.7253605128545502</v>
+      </c>
+      <c r="L31" s="7">
+        <v>80.8</v>
+      </c>
+      <c r="M31" s="9">
+        <f t="shared" si="0"/>
+        <v>2331837</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A32" s="8">
+        <v>44104</v>
+      </c>
+      <c r="B32" s="6">
+        <v>572894</v>
+      </c>
+      <c r="C32" s="7">
+        <v>-3.0309698189407199</v>
+      </c>
+      <c r="D32" s="6">
+        <v>564250</v>
+      </c>
+      <c r="E32" s="7">
+        <v>-2.91738213301308</v>
+      </c>
+      <c r="F32" s="6">
+        <v>8842</v>
+      </c>
+      <c r="G32" s="7">
+        <v>-3.77577818917639</v>
+      </c>
+      <c r="H32" s="6">
+        <v>548244</v>
+      </c>
+      <c r="I32" s="7">
+        <v>-3.6931638525263999</v>
+      </c>
+      <c r="J32" s="6">
+        <v>488769</v>
+      </c>
+      <c r="K32" s="7">
+        <v>-3.0027783290335401</v>
+      </c>
+      <c r="L32" s="7">
+        <v>81.8</v>
+      </c>
+      <c r="M32" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A33" s="8">
+        <v>44196</v>
+      </c>
+      <c r="B33" s="6">
+        <v>592265</v>
+      </c>
+      <c r="C33" s="7">
+        <v>-0.32984139004585999</v>
+      </c>
+      <c r="D33" s="6">
+        <v>579650</v>
+      </c>
+      <c r="E33" s="7">
+        <v>-0.87555791165758001</v>
+      </c>
+      <c r="F33" s="6">
+        <v>12593</v>
+      </c>
+      <c r="G33" s="7">
+        <v>-0.75614366729677995</v>
+      </c>
+      <c r="H33" s="6">
+        <v>571323</v>
+      </c>
+      <c r="I33" s="7">
+        <v>1.1069464206077799</v>
+      </c>
+      <c r="J33" s="6">
+        <v>511430</v>
+      </c>
+      <c r="K33" s="7">
+        <v>1.7066787577956</v>
+      </c>
+      <c r="L33" s="7">
+        <v>84.7</v>
+      </c>
+      <c r="M33" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A34" s="8">
+        <v>44286</v>
+      </c>
+      <c r="B34" s="6">
+        <v>605368</v>
+      </c>
+      <c r="C34" s="7">
+        <v>2.0324990856366498</v>
+      </c>
+      <c r="D34" s="6">
+        <v>593263</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1.4811735807486801</v>
+      </c>
+      <c r="F34" s="6">
+        <v>12136</v>
+      </c>
+      <c r="G34" s="7">
+        <v>1.93336785775937</v>
+      </c>
+      <c r="H34" s="6">
+        <v>593007</v>
+      </c>
+      <c r="I34" s="7">
+        <v>5.0931472279129899</v>
+      </c>
+      <c r="J34" s="6">
+        <v>532781</v>
+      </c>
+      <c r="K34" s="7">
+        <v>5.5503055877487597</v>
+      </c>
+      <c r="L34" s="7">
+        <v>90.7</v>
+      </c>
+      <c r="M34" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A35" s="8">
+        <v>44377</v>
+      </c>
+      <c r="B35" s="6">
+        <v>610538</v>
+      </c>
+      <c r="C35" s="7">
+        <v>10.304569811852501</v>
+      </c>
+      <c r="D35" s="6">
+        <v>597021</v>
+      </c>
+      <c r="E35" s="7">
+        <v>9.5344856371765605</v>
+      </c>
+      <c r="F35" s="6">
+        <v>13480</v>
+      </c>
+      <c r="G35" s="7">
+        <v>10.151978500602301</v>
+      </c>
+      <c r="H35" s="6">
+        <v>610222</v>
+      </c>
+      <c r="I35" s="7">
+        <v>15.5222450868847</v>
+      </c>
+      <c r="J35" s="6">
+        <v>551947</v>
+      </c>
+      <c r="K35" s="7">
+        <v>17.767284862036899</v>
+      </c>
+      <c r="L35" s="7">
+        <v>99.4</v>
+      </c>
+      <c r="M35" s="9">
+        <f t="shared" si="0"/>
+        <v>2381065</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="L9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I9" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="K9" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>